--- a/CIS_Microsoft_Azure_Foundations_Benchmark_v1.3_Mapped_to_azure_Policy_Initiative.xlsx
+++ b/CIS_Microsoft_Azure_Foundations_Benchmark_v1.3_Mapped_to_azure_Policy_Initiative.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjasset\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928739D0-D351-4016-9438-257E473B7430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79E22CF-8D5D-4252-9C1B-826B80580FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1836" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
     <sheet name="Combined" sheetId="6" r:id="rId2"/>
-    <sheet name="Level 1" sheetId="2" r:id="rId3"/>
-    <sheet name="Level 2" sheetId="3" r:id="rId4"/>
-    <sheet name="Links" sheetId="4" r:id="rId5"/>
+    <sheet name="Links" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Combined!$A$1:$W$126</definedName>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1012">
   <si>
     <t>License</t>
   </si>
@@ -6736,7 +6734,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6752,30 +6750,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE3EFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -6872,7 +6846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6895,26 +6869,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7292,7 +7254,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
@@ -7332,31 +7294,31 @@
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>995</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="11" t="s">
         <v>906</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -7457,7 +7419,7 @@
       <c r="I3" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>912</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -7591,7 +7553,7 @@
       <c r="I5" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="9" t="s">
         <v>920</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -7713,7 +7675,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -7813,7 +7775,7 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -7923,7 +7885,7 @@
       <c r="I11" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -8037,7 +7999,7 @@
       <c r="I13" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -8149,7 +8111,7 @@
       <c r="I15" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -8251,7 +8213,7 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -8365,7 +8327,7 @@
       <c r="I19" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -8477,7 +8439,7 @@
       <c r="I21" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="J21" s="13"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -8585,7 +8547,7 @@
       <c r="I23" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="9" t="s">
         <v>921</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -8699,7 +8661,7 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -8793,7 +8755,7 @@
       <c r="I27" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="9" t="s">
         <v>923</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -8858,7 +8820,7 @@
       <c r="I28" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="10" t="s">
         <v>925</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -8923,7 +8885,7 @@
       <c r="I29" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="9" t="s">
         <v>926</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -9053,7 +9015,7 @@
       <c r="I31" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="9" t="s">
         <v>928</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -9185,7 +9147,7 @@
       <c r="I33" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="9" t="s">
         <v>929</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -9311,7 +9273,7 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="13"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -9419,7 +9381,7 @@
         <v>903</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="9" t="s">
         <v>931</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -9531,7 +9493,7 @@
         <v>903</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="9" t="s">
         <v>932</v>
       </c>
       <c r="K39" s="7" t="s">
@@ -9650,7 +9612,7 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="13"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="O41" s="7" t="s">
@@ -9736,7 +9698,7 @@
       <c r="I43" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="9" t="s">
         <v>934</v>
       </c>
       <c r="K43" s="7" t="s">
@@ -9846,7 +9808,7 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="13"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="O45" s="7"/>
@@ -9944,7 +9906,7 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="9" t="s">
         <v>936</v>
       </c>
       <c r="K47" s="7" t="s">
@@ -10056,7 +10018,7 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="9" t="s">
         <v>940</v>
       </c>
       <c r="K49" s="7" t="s">
@@ -10162,7 +10124,7 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="13" t="s">
+      <c r="J51" s="9" t="s">
         <v>942</v>
       </c>
       <c r="K51" s="7" t="s">
@@ -10274,7 +10236,7 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="13"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -10354,7 +10316,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="13"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -10452,7 +10414,7 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="9" t="s">
         <v>944</v>
       </c>
       <c r="K57" s="7" t="s">
@@ -10554,7 +10516,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="13"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -10654,7 +10616,7 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="9" t="s">
         <v>948</v>
       </c>
       <c r="K61" s="7" t="s">
@@ -10764,7 +10726,7 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="9" t="s">
         <v>949</v>
       </c>
       <c r="K63" s="7" t="s">
@@ -10866,7 +10828,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="13"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -10962,7 +10924,7 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="13" t="s">
+      <c r="J67" s="9" t="s">
         <v>951</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -11070,7 +11032,7 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="13" t="s">
+      <c r="J69" s="9" t="s">
         <v>953</v>
       </c>
       <c r="K69" s="7" t="s">
@@ -11178,7 +11140,7 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="9" t="s">
         <v>955</v>
       </c>
       <c r="K71" s="7" t="s">
@@ -11282,7 +11244,7 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="13"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="O73" s="7" t="s">
@@ -11386,7 +11348,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="9" t="s">
         <v>957</v>
       </c>
       <c r="K75" s="7" t="s">
@@ -11470,7 +11432,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
-      <c r="J77" s="13"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -11562,7 +11524,7 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="13"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7" t="s">
@@ -11670,7 +11632,7 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
-      <c r="J81" s="13" t="s">
+      <c r="J81" s="9" t="s">
         <v>958</v>
       </c>
       <c r="K81" s="7" t="s">
@@ -11770,7 +11732,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="13"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -11974,7 +11936,7 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="9" t="s">
         <v>961</v>
       </c>
       <c r="K87" s="7" t="s">
@@ -12087,7 +12049,7 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="13" t="s">
+      <c r="J89" s="9" t="s">
         <v>961</v>
       </c>
       <c r="K89" s="7" t="s">
@@ -12197,7 +12159,7 @@
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
-      <c r="J91" s="13" t="s">
+      <c r="J91" s="9" t="s">
         <v>963</v>
       </c>
       <c r="K91" s="7" t="s">
@@ -12398,7 +12360,7 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
-      <c r="J95" s="13" t="s">
+      <c r="J95" s="9" t="s">
         <v>966</v>
       </c>
       <c r="K95" s="7" t="s">
@@ -12511,7 +12473,7 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
-      <c r="J97" s="13"/>
+      <c r="J97" s="9"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -12617,7 +12579,7 @@
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="13" t="s">
+      <c r="J99" s="9" t="s">
         <v>971</v>
       </c>
       <c r="K99" s="7" t="s">
@@ -12711,7 +12673,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
-      <c r="J101" s="13"/>
+      <c r="J101" s="9"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -12807,7 +12769,7 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
-      <c r="J103" s="13" t="s">
+      <c r="J103" s="9" t="s">
         <v>973</v>
       </c>
       <c r="K103" s="7" t="s">
@@ -12921,7 +12883,7 @@
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
-      <c r="J105" s="13" t="s">
+      <c r="J105" s="9" t="s">
         <v>976</v>
       </c>
       <c r="K105" s="7" t="s">
@@ -13029,7 +12991,7 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
-      <c r="J107" s="13" t="s">
+      <c r="J107" s="9" t="s">
         <v>978</v>
       </c>
       <c r="K107" s="7" t="s">
@@ -13131,7 +13093,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
-      <c r="J109" s="13"/>
+      <c r="J109" s="9"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
@@ -13227,7 +13189,7 @@
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
-      <c r="J111" s="13" t="s">
+      <c r="J111" s="9" t="s">
         <v>980</v>
       </c>
       <c r="K111" s="7" t="s">
@@ -13335,7 +13297,7 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
-      <c r="J113" s="13" t="s">
+      <c r="J113" s="9" t="s">
         <v>981</v>
       </c>
       <c r="K113" s="7" t="s">
@@ -13441,7 +13403,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
-      <c r="J115" s="13"/>
+      <c r="J115" s="9"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
@@ -13541,7 +13503,7 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
-      <c r="J117" s="13" t="s">
+      <c r="J117" s="9" t="s">
         <v>985</v>
       </c>
       <c r="K117" s="7" t="s">
@@ -13651,7 +13613,7 @@
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
-      <c r="J119" s="13" t="s">
+      <c r="J119" s="9" t="s">
         <v>987</v>
       </c>
       <c r="K119" s="7" t="s">
@@ -13761,7 +13723,7 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
-      <c r="J121" s="13" t="s">
+      <c r="J121" s="9" t="s">
         <v>990</v>
       </c>
       <c r="K121" s="7" t="s">
@@ -13977,7 +13939,7 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
-      <c r="J125" s="13" t="s">
+      <c r="J125" s="9" t="s">
         <v>994</v>
       </c>
       <c r="K125" s="7" t="s">
@@ -14082,3369 +14044,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB72"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:XFD80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="7.5234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.734375" style="5"/>
-    <col min="4" max="4" width="8.89453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.05078125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.734375" style="5"/>
-    <col min="14" max="14" width="70.62890625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="155.89453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.734375" style="5"/>
-    <col min="17" max="17" width="21.9453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="18.734375" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" ht="239.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="11" spans="1:28" ht="180.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="K11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="17" spans="1:19" ht="57" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="K17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="23" spans="1:19" ht="45.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="K23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:19" ht="171" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="28" spans="1:19" ht="148.19999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="1:19" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="K29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="39" spans="1:19" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="K39" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-    </row>
-    <row r="40" spans="1:19" ht="239.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="K40" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-    </row>
-    <row r="45" spans="1:19" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="K45" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="56" spans="1:19" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="K56" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-    </row>
-    <row r="62" spans="1:19" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="K62" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-    </row>
-    <row r="67" spans="1:19" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="K67" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-    </row>
-    <row r="72" spans="1:19" ht="22.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="K72" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD80"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="7.5234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.83984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.9453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="18.578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26.47265625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="23.1015625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="23.734375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="25.62890625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="29.1015625" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="15.20703125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-    </row>
-    <row r="2" spans="1:30" ht="342.3" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="387.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="182.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="79.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" ht="330.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="296.39999999999998" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="307.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="330.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="330.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="342" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="68.400000000000006" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-    </row>
-    <row r="37" spans="1:21" ht="239.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="1:21" ht="205.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="1:21" ht="342" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>812</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="45.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-    </row>
-    <row r="45" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="45.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-    </row>
-    <row r="47" spans="1:21" ht="342" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="57" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-    </row>
-    <row r="50" spans="1:21" ht="45.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-    </row>
-    <row r="51" spans="1:21" ht="353.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B51" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="45.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-    </row>
-    <row r="53" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="57" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-    </row>
-    <row r="57" spans="1:21" ht="319.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="34.200000000000003" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-    </row>
-    <row r="59" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="R59" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="330.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>893</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>896</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-    </row>
-    <row r="67" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-    </row>
-    <row r="69" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-    </row>
-    <row r="73" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" spans="6:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" location="blade/Microsoft_Azure_Policy/PolicyDetailBlade/definitionId/%2Fproviders%2FMicrosoft.Authorization%2FpolicyDefinitions%2F9297c21d-2ed6-4474-b48f-163f75654ce3" display="https://portal.azure.com/#blade/Microsoft_Azure_Policy/PolicyDetailBlade/definitionId/%2Fproviders%2FMicrosoft.Authorization%2FpolicyDefinitions%2F9297c21d-2ed6-4474-b48f-163f75654ce3" xr:uid="{01181AF0-1479-4192-8260-4167918BB1CB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA9F759-D311-480C-BACB-912641BCDD90}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -17454,12 +14057,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>911</v>
       </c>
     </row>

--- a/CIS_Microsoft_Azure_Foundations_Benchmark_v1.3_Mapped_to_azure_Policy_Initiative.xlsx
+++ b/CIS_Microsoft_Azure_Foundations_Benchmark_v1.3_Mapped_to_azure_Policy_Initiative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjasset\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79E22CF-8D5D-4252-9C1B-826B80580FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DDA60-25B0-445C-B537-6ECE4E67EE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32556" yWindow="-17388" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1018">
   <si>
     <t>License</t>
   </si>
@@ -6691,6 +6691,27 @@
   </si>
   <si>
     <t>Storage Account set to minumum TLS and Secure transfer should be enabled</t>
+  </si>
+  <si>
+    <t>There are multiple policies to enforce this control.  The additional policies referenced allow additional settings like TLS version to be set.
+That being said if non-compliant storage accounts exist prior to the application of the policy then they would need to be manually remediated.  It should be possible to create a policy to enforce this setting via remediation but one does not exist today.</t>
+  </si>
+  <si>
+    <t>The policy in the Initiative provides for enforcement via the Deny which would automatically deny the creation of storage accounts that do not meet the policy.  
+That being said if non-compliant storage accounts exist prior to the application of the policy then they would need to be manually remediated.  It should be possible to create a policy to enforce this setting via remediation but one does not exist today.</t>
+  </si>
+  <si>
+    <t>https://www.cssia.org/wp-content/uploads/2020/01/CIS_Controls_V7_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizations should review this control carefully for their requirements.  The benchmark and associated azure policy definitions will check the PaaS service networking rules to ensure that only "Private Endpoints" and "Service Endpoints" are used which restrict network access to either specific VNETS in the case of service endpoints or a private IP assigned to the PaaS instance via Private Endpoints.  There may be scenarios where the org has requirements to permit "Private Endpoints" only or "Service Endpoints" only depending on their maturity.  In addition, some orgs may opt to also allow traffic from white listed public IPs such as their proxy IP addresses to facilitate some portal functionality like enumerating keyvault resources etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The policy in the Initiative provides for enforcement via the Deny which would automatically deny the creation of storage accounts that do not meet the policy.  
+That being said if non-compliant storage accounts exist prior to the application of the policy then they would need to be manually remediated.  It should be possible to create a policy to enforce this setting via remediation but one does not exist today. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The root CIS control </t>
   </si>
 </sst>
 </file>
@@ -7254,9 +7275,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AF126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7264,7 +7285,7 @@
     <col min="1" max="1" width="7.5234375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.68359375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.15625" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.9453125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.9453125" style="5" customWidth="1"/>
     <col min="8" max="9" width="18.578125" style="5" customWidth="1"/>
@@ -7592,7 +7613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="250.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:32" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -9710,7 +9731,9 @@
       <c r="M43" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="O43" s="7" t="s">
         <v>136</v>
       </c>
@@ -9914,7 +9937,9 @@
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="N47" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="O47" s="7" t="s">
         <v>160</v>
       </c>
@@ -9939,7 +9964,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="296.39999999999998" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" ht="387.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6" t="s">
         <v>131</v>
       </c>
@@ -9961,8 +9986,12 @@
       <c r="G48" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>903</v>
+      </c>
       <c r="J48" s="6" t="s">
         <v>938</v>
       </c>
@@ -9971,7 +10000,9 @@
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="N48" s="6" t="s">
+        <v>1015</v>
+      </c>
       <c r="O48" s="6" t="s">
         <v>749</v>
       </c>
@@ -10026,7 +10057,9 @@
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="7" t="s">
+        <v>1016</v>
+      </c>
       <c r="O49" s="7" t="s">
         <v>756</v>
       </c>
@@ -10100,7 +10133,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
     </row>
-    <row r="51" spans="1:23" ht="353.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" ht="330.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>131</v>
       </c>
@@ -10132,7 +10165,9 @@
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
+      <c r="N51" s="7" t="s">
+        <v>1017</v>
+      </c>
       <c r="O51" s="7" t="s">
         <v>763</v>
       </c>
@@ -10900,7 +10935,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="285" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>217</v>
       </c>
@@ -11063,7 +11098,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="285" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6" t="s">
         <v>217</v>
       </c>
@@ -11171,7 +11206,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="285" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6" t="s">
         <v>217</v>
       </c>
@@ -14045,10 +14080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA9F759-D311-480C-BACB-912641BCDD90}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14066,10 +14101,16 @@
         <v>911</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{BD2D8DC0-153F-4727-813B-018085913731}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{FDC19F6B-78C3-4560-B73C-91A5DB33D9C0}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{0B26960C-D0E5-4552-BB16-D992F828F397}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
